--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220429_110201.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220429_110201.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="266">
   <si>
     <t>사이트</t>
   </si>
@@ -785,6 +785,9 @@
   </si>
   <si>
     <t>YUE HUA</t>
+  </si>
+  <si>
+    <t>마크툽컴퍼니</t>
   </si>
   <si>
     <t>FNC</t>
@@ -2855,6 +2858,12 @@
       <c r="F65" t="s">
         <v>208</v>
       </c>
+      <c r="G65" t="s">
+        <v>257</v>
+      </c>
+      <c r="H65" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
@@ -3135,6 +3144,12 @@
       <c r="F76" t="s">
         <v>84</v>
       </c>
+      <c r="G76" t="s">
+        <v>242</v>
+      </c>
+      <c r="H76" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
@@ -3208,7 +3223,7 @@
         <v>87</v>
       </c>
       <c r="G79" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H79" t="s">
         <v>239</v>
@@ -3259,6 +3274,12 @@
       <c r="F81" t="s">
         <v>221</v>
       </c>
+      <c r="G81" t="s">
+        <v>257</v>
+      </c>
+      <c r="H81" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
@@ -3280,7 +3301,7 @@
         <v>222</v>
       </c>
       <c r="G82" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H82" t="s">
         <v>239</v>
@@ -3436,7 +3457,7 @@
         <v>225</v>
       </c>
       <c r="G88" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H88" t="s">
         <v>239</v>
@@ -3488,7 +3509,7 @@
         <v>98</v>
       </c>
       <c r="G90" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H90" t="s">
         <v>239</v>
@@ -3540,7 +3561,7 @@
         <v>100</v>
       </c>
       <c r="G92" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H92" t="s">
         <v>239</v>
@@ -3566,7 +3587,7 @@
         <v>227</v>
       </c>
       <c r="G93" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H93" t="s">
         <v>239</v>
@@ -3592,7 +3613,7 @@
         <v>102</v>
       </c>
       <c r="G94" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H94" t="s">
         <v>239</v>
@@ -3618,7 +3639,7 @@
         <v>103</v>
       </c>
       <c r="G95" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H95" t="s">
         <v>239</v>
@@ -3722,7 +3743,7 @@
         <v>107</v>
       </c>
       <c r="G99" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H99" t="s">
         <v>239</v>

--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220429_110201.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220429_110201.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>genie</t>
+    <t>Genie</t>
   </si>
   <si>
     <t>2022-04-29</t>

--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220429_110201.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220429_110201.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="265">
   <si>
     <t>사이트</t>
   </si>
@@ -770,9 +770,6 @@
   </si>
   <si>
     <t>neuron music</t>
-  </si>
-  <si>
-    <t>개인</t>
   </si>
   <si>
     <t>빅히트</t>
@@ -2313,7 +2310,7 @@
         <v>52</v>
       </c>
       <c r="G44" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="H44" t="s">
         <v>239</v>
@@ -2391,10 +2388,10 @@
         <v>193</v>
       </c>
       <c r="G47" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H47" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2417,7 +2414,7 @@
         <v>194</v>
       </c>
       <c r="G48" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="H48" t="s">
         <v>239</v>
@@ -2573,7 +2570,7 @@
         <v>200</v>
       </c>
       <c r="G54" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H54" t="s">
         <v>239</v>
@@ -2599,10 +2596,10 @@
         <v>63</v>
       </c>
       <c r="G55" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H55" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2651,7 +2648,7 @@
         <v>202</v>
       </c>
       <c r="G57" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H57" t="s">
         <v>239</v>
@@ -2677,7 +2674,7 @@
         <v>203</v>
       </c>
       <c r="G58" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H58" t="s">
         <v>239</v>
@@ -2859,7 +2856,7 @@
         <v>208</v>
       </c>
       <c r="G65" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H65" t="s">
         <v>239</v>
@@ -2911,7 +2908,7 @@
         <v>210</v>
       </c>
       <c r="G67" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="H67" t="s">
         <v>239</v>
@@ -3041,7 +3038,7 @@
         <v>190</v>
       </c>
       <c r="G72" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="H72" t="s">
         <v>239</v>
@@ -3067,7 +3064,7 @@
         <v>215</v>
       </c>
       <c r="G73" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="H73" t="s">
         <v>239</v>
@@ -3093,10 +3090,10 @@
         <v>216</v>
       </c>
       <c r="G74" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H74" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3223,7 +3220,7 @@
         <v>87</v>
       </c>
       <c r="G79" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H79" t="s">
         <v>239</v>
@@ -3275,7 +3272,7 @@
         <v>221</v>
       </c>
       <c r="G81" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H81" t="s">
         <v>239</v>
@@ -3301,7 +3298,7 @@
         <v>222</v>
       </c>
       <c r="G82" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H82" t="s">
         <v>239</v>
@@ -3457,7 +3454,7 @@
         <v>225</v>
       </c>
       <c r="G88" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H88" t="s">
         <v>239</v>
@@ -3509,7 +3506,7 @@
         <v>98</v>
       </c>
       <c r="G90" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H90" t="s">
         <v>239</v>
@@ -3561,7 +3558,7 @@
         <v>100</v>
       </c>
       <c r="G92" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H92" t="s">
         <v>239</v>
@@ -3587,7 +3584,7 @@
         <v>227</v>
       </c>
       <c r="G93" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H93" t="s">
         <v>239</v>
@@ -3613,7 +3610,7 @@
         <v>102</v>
       </c>
       <c r="G94" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H94" t="s">
         <v>239</v>
@@ -3639,7 +3636,7 @@
         <v>103</v>
       </c>
       <c r="G95" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H95" t="s">
         <v>239</v>
@@ -3743,7 +3740,7 @@
         <v>107</v>
       </c>
       <c r="G99" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H99" t="s">
         <v>239</v>
@@ -3795,10 +3792,10 @@
         <v>229</v>
       </c>
       <c r="G101" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H101" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
